--- a/defaultDB/eeee.xlsx
+++ b/defaultDB/eeee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b9bdf321d232ac5/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Nu'man\source\repos\qrStudent\defaultDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E042F4-7262-4012-9D55-8E5AA3C65300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C0F9F-291E-49FC-B48F-FDC1170157C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4230" windowWidth="24240" windowHeight="13140" xr2:uid="{E44AA031-BEC9-43E8-82B0-AD0E515FE725}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{E44AA031-BEC9-43E8-82B0-AD0E515FE725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Nama</t>
   </si>
@@ -63,16 +63,76 @@
   </si>
   <si>
     <t>Gamma</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>c6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D8E5D-3E57-43E9-9BD9-BA9C9D8819ED}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +538,260 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>91011</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>91011</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>91011</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>91011</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>91011</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>91011</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>91011</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>91011</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>91011</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>91011</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>91011</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>91011</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>91011</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>91011</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>91011</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>91011</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>91011</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>91011</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>